--- a/pred_ohlcv/54_21/2019-10-30 MITH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 MITH ohlcv.xlsx
@@ -2160,7 +2160,7 @@
         <v>-352536.3542138365</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-352536.3542138365</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-352536.3542138365</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-372306.5478138365</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-413306.5478138365</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>2375489.552086164</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>2375489.552086164</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>2382127.750786164</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>2422737.750786164</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>2372659.682386164</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>2372690.484786164</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>2359922.136786163</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>2359922.136786163</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>2359922.136786163</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>2399932.136786163</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>2397681.008786163</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>2397691.008786163</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>2397691.008786163</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>2397691.008786163</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-30 MITH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 MITH ohlcv.xlsx
@@ -1562,7 +1562,7 @@
         <v>-439745.7277138365</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-439745.7277138365</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-352536.3542138365</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-352536.3542138365</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-352536.3542138365</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-352536.3542138365</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-372306.5478138365</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-413306.5478138365</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>2351985.691586163</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>2180215.522886164</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>2375489.552086164</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>2375489.552086164</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>2382127.750786164</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>2422737.750786164</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>2372690.484786164</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
